--- a/guide/sdr-decedent-PlaceOfDeath-extension.xlsx
+++ b/guide/sdr-decedent-PlaceOfDeath-extension.xlsx
@@ -207,10 +207,10 @@
     <t>The name of a facility or institution</t>
   </si>
   <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://nightingaleproject.github.io/fhirDeathRecord/StructureDefinition/shr-core-Address-extension]]} {[]}
+    <t>postaladdress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://nightingaleproject.github.io/fhirDeathRecord/StructureDefinition/shr-core-PostalAddress-extension]]} {[]}
 </t>
   </si>
   <si>
